--- a/INTLINE/data/534/CGB/Central Government Borrowings.xlsx
+++ b/INTLINE/data/534/CGB/Central Government Borrowings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\534\CGB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\534\CGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ACDFDF-ECBC-4702-B00F-B590AC94F74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A411DFA0-ED47-4352-9492-A92ABF638D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="3300" windowWidth="13470" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Central Government Borrowings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>1998-Q4</t>
   </si>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>2021-Q3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-Q4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -718,22 +722,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO4"/>
+  <dimension ref="A1:CP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="CH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CO2" sqref="CO2"/>
+      <selection pane="bottomRight" activeCell="CP7" sqref="CP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="92" max="93" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -1013,8 +1018,11 @@
       <c r="CO1" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="CP1" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -1294,8 +1302,11 @@
       <c r="CO2">
         <v>11501024.52</v>
       </c>
+      <c r="CP2">
+        <v>11763351.43</v>
+      </c>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1575,8 +1586,11 @@
       <c r="CO3">
         <v>805551.68</v>
       </c>
+      <c r="CP3">
+        <v>816829.36</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
@@ -1855,6 +1869,9 @@
       </c>
       <c r="CO4">
         <v>10695472.84</v>
+      </c>
+      <c r="CP4">
+        <v>10946522.07</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/534/CGB/Central Government Borrowings.xlsx
+++ b/INTLINE/data/534/CGB/Central Government Borrowings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\534\CGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A411DFA0-ED47-4352-9492-A92ABF638D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3001290B-167E-4403-9687-E4E5FB0B9A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="3300" windowWidth="13470" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="2940" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Central Government Borrowings" sheetId="1" r:id="rId1"/>
@@ -725,10 +725,10 @@
   <dimension ref="A1:CP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CP7" sqref="CP7"/>
+      <selection pane="bottomRight" activeCell="CT13" sqref="CT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
